--- a/オブジェクト図_機能概要.xlsx
+++ b/オブジェクト図_機能概要.xlsx
@@ -5,21 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81805\Documents\MokuKatsu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81805\Desktop\MokuKatsu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D31F84-AE33-4405-90EB-72261D47BA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6EC1A95-33AE-4BC6-B8BC-6683811C5F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" tabRatio="893" activeTab="1" xr2:uid="{39B520BD-8DBE-4EA8-ADC3-9C5A988C0D05}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="893" activeTab="5" xr2:uid="{39B520BD-8DBE-4EA8-ADC3-9C5A988C0D05}"/>
   </bookViews>
   <sheets>
-    <sheet name="MokuKatsu_作業構成と流れ" sheetId="1" r:id="rId1"/>
-    <sheet name="機能概要_新規登録" sheetId="2" r:id="rId2"/>
-    <sheet name="機能概要_新規登録 (2)" sheetId="3" r:id="rId3"/>
-    <sheet name="機能概要_新規登録 (3)" sheetId="4" r:id="rId4"/>
-    <sheet name="機能概要_新規登録 (4)" sheetId="5" r:id="rId5"/>
-    <sheet name="機能概要_新規登録 (5)" sheetId="6" r:id="rId6"/>
-    <sheet name="機能概要_新規登録 (6)" sheetId="7" r:id="rId7"/>
+    <sheet name="作業リスト" sheetId="8" r:id="rId1"/>
+    <sheet name="MokuKatsu_作業構成と流れ" sheetId="1" r:id="rId2"/>
+    <sheet name="機能概要_新規登録" sheetId="2" r:id="rId3"/>
+    <sheet name="機能概要_ログイン" sheetId="3" r:id="rId4"/>
+    <sheet name="機能概要_目標登録" sheetId="9" r:id="rId5"/>
+    <sheet name="機能概要_ステップ登録" sheetId="4" r:id="rId6"/>
+    <sheet name="機能概要_目標確認" sheetId="11" r:id="rId7"/>
+    <sheet name="機能概要_足あと確認" sheetId="10" r:id="rId8"/>
+    <sheet name="機能概要_新規登録 (4)" sheetId="5" r:id="rId9"/>
+    <sheet name="機能概要_新規登録 (5)" sheetId="6" r:id="rId10"/>
+    <sheet name="機能概要_新規登録 (6)" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
   <si>
     <t>機能概要_新規登録画面</t>
     <rPh sb="0" eb="4">
@@ -80,9 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ名,ID,パスワードに被りが無い(過去の自分のもの,他人のもの)</t>
-  </si>
-  <si>
     <t>処理がNGの場合</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
@@ -126,6 +127,866 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要_ログイン画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移時に運ぶもの</t>
+    <rPh sb="0" eb="3">
+      <t>センイジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次画面(遷移先)</t>
+    <rPh sb="0" eb="3">
+      <t>ツギガメン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>センイサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID,パスワードを入力する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID,パスワードに誤りが無い(IDのミス,パスワードのミス)</t>
+    <rPh sb="9" eb="10">
+      <t>アヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名,ID,パスワードに誤り・重複が無い(過去の自分のもの,他人のもの)</t>
+    <rPh sb="14" eb="15">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去もしくは現在使用中のものと比較するチェック機能</t>
+  </si>
+  <si>
+    <t>目標確認</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名(ログイン結果)</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移先と必要データ</t>
+    <rPh sb="0" eb="3">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加実装が必要な機能</t>
+    <rPh sb="0" eb="4">
+      <t>ツイカジッソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインの完了</t>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID/パスワードの入力ミス</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「IDもしくはパスワードに誤りがあります」</t>
+    <rPh sb="21" eb="22">
+      <t>アヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要箇所</t>
+    <rPh sb="0" eb="4">
+      <t>ヒツヨウカショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要_目標登録画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移画面</t>
+    <rPh sb="0" eb="4">
+      <t>センイガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出力種別(I/O)</t>
+    <rPh sb="0" eb="5">
+      <t>ニュウシュツリョクシュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移画面名</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出力種別</t>
+    <rPh sb="0" eb="5">
+      <t>ニュウシュツリョクシュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標登録</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標確認</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足あと確認</t>
+    <rPh sb="0" eb="1">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習開始</t>
+    <rPh sb="0" eb="4">
+      <t>ガクシュウカイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ登録</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ確認</t>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習記録</t>
+    <rPh sb="0" eb="4">
+      <t>ガクシュウキロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長期目標の登録を行う</t>
+    <rPh sb="0" eb="4">
+      <t>チョウキモクヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標登録の完了</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウトウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標名,設定理由,期限が入力されている事</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG処理(目標名)</t>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>モクヒョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>字数が100字を超える</t>
+    <rPh sb="0" eb="2">
+      <t>ジスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「字数オーバーです」</t>
+    <rPh sb="9" eb="11">
+      <t>ジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力不可文字(異体字等)が含まれる</t>
+    <rPh sb="0" eb="6">
+      <t>ニュウリョクフカモジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>イタイジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「入力規則に適していない文字が含まれています」</t>
+    <rPh sb="9" eb="13">
+      <t>ニュウリョクキソク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力が無い</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG処理(共通)</t>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「全項目の入力は必須です」</t>
+    <rPh sb="9" eb="12">
+      <t>ゼンコウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG処理(期限)</t>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値以外が入力されている場合</t>
+    <rPh sb="0" eb="4">
+      <t>スウチイガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「数字のみを入力してください」</t>
+    <rPh sb="9" eb="11">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日より前の日付が設定されている場合</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「明日以降の日付を入力してください」</t>
+    <rPh sb="9" eb="13">
+      <t>アシタイコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標番号</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック機能(記入内容,字数,文字の種類)</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>キニュウナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要_ステップ登録画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標にたどり着く為のステップを最大7件まで登録する</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ名と期限を登録する</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移先と必要データ(データ処理)</t>
+    <rPh sb="0" eb="3">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ名と期限が入力されている事</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ名,期限が1つも入力されていない</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「最低1件のデータ入力が必要です」</t>
+    <rPh sb="9" eb="11">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標番号</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標番号,ステップ番号</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標登録</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特になし</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要_目標確認画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録を行った目標・ステップ・状況を確認できる</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標・ステップ・状況の確認</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報の一覧表示</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標が未入力</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「目標を入力して下さい」→目標登録画面へ</t>
+    <rPh sb="9" eb="11">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="21" eb="27">
+      <t>モクヒョウトウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ全てが達成済み</t>
+    <rPh sb="4" eb="5">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>タッセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「ステップをすべて達成しています。新たな内容を入力して下さい」</t>
+    <rPh sb="17" eb="19">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名一覧</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出身地</t>
+    <rPh sb="0" eb="3">
+      <t>シュッシンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションにて情報を受け渡す機能</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック機能(記入内容,字数,文字の種類)
+※画面共通機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>キニュウナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="23" eb="29">
+      <t>ガメンキョウツウキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標名</t>
+    <rPh sb="0" eb="3">
+      <t>モクヒョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標期限</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標設定理由</t>
+    <rPh sb="0" eb="6">
+      <t>モクヒョウセッテイリユウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -151,7 +1012,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +1025,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -188,23 +1085,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1435,6 +2495,60 @@
           <a:ext cx="1204913" cy="700088"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDF2D03-F6E6-4D36-AF13-D7F29303A640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3771900" y="1057275"/>
+          <a:ext cx="342900" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -1758,14 +2872,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A27F652-FF2B-4C33-996C-5D45D897D662}">
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24379D3E-0B4F-4E29-9A83-F89F5E9D5EC9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E755300-1C8D-40DD-9349-7C2EE58F8E65}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B374448D-74CC-4547-B92F-2CB335DDBAB4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1774,117 +3010,1060 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772763EA-4A97-41D7-BF1F-7706FCD5CE65}">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1"/>
+      <c r="B15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="5">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98017A99-C2C7-4D57-9359-9B50FA61EAC6}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C13" sqref="C13:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D141E9-0B32-4178-ABBB-ED1197BD2503}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1"/>
+      <c r="B15" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5B8EE-549A-4C18-9F76-86FCB6C92C92}">
+  <dimension ref="A2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="19"/>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="19"/>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1"/>
+      <c r="B20" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BEC16227-241F-4DE1-8785-9CDB1065758C}">
+          <x14:formula1>
+            <xm:f>作業リスト!$C$3:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A14:A16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1157988E-C351-4702-8E67-D2D8ACE3C9B4}">
+          <x14:formula1>
+            <xm:f>作業リスト!$B$3:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B14:B16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D141E9-0B32-4178-ABBB-ED1197BD2503}">
+  <dimension ref="A2:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A8:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E0B2DBF-C073-40E2-B6AE-A8C0838DA2F8}">
+          <x14:formula1>
+            <xm:f>作業リスト!$B$3:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78A13590-9B92-44E6-9C3E-BD7663063911}">
+          <x14:formula1>
+            <xm:f>作業リスト!$C$3:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A10:A13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3E4B05-3A11-407A-A54C-D90A795E15A2}">
+  <dimension ref="A2:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="19"/>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="19"/>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="19"/>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="18"/>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F6D1728-D98A-4040-A0EA-2C6281FFA648}">
+          <x14:formula1>
+            <xm:f>作業リスト!$B$3:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B14:B16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78A40FA8-8BE1-4BDD-9BAF-7306203E2210}">
+          <x14:formula1>
+            <xm:f>作業リスト!$C$3:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A14:A16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693F410-AA2E-42AD-B3D3-F5FA5F369350}">
+  <dimension ref="A2:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{64551813-24D5-4F9C-9F3B-B1A43F30BA3A}">
+          <x14:formula1>
+            <xm:f>作業リスト!$C$3:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A11:A13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{440EB0C0-861E-47A3-85DA-DE784777BF9E}">
+          <x14:formula1>
+            <xm:f>作業リスト!$B$3:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11:B13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6F3D33-42FB-4F3E-83A0-DAD0F7EC3F76}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1892,37 +4071,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24379D3E-0B4F-4E29-9A83-F89F5E9D5EC9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E755300-1C8D-40DD-9349-7C2EE58F8E65}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/オブジェクト図_機能概要.xlsx
+++ b/オブジェクト図_機能概要.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81805\Desktop\MokuKatsu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6EC1A95-33AE-4BC6-B8BC-6683811C5F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2871E12-0934-400D-8A5A-161D1ABA0D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="893" activeTab="5" xr2:uid="{39B520BD-8DBE-4EA8-ADC3-9C5A988C0D05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" tabRatio="893" firstSheet="6" activeTab="12" xr2:uid="{39B520BD-8DBE-4EA8-ADC3-9C5A988C0D05}"/>
   </bookViews>
   <sheets>
     <sheet name="作業リスト" sheetId="8" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="機能概要_目標登録" sheetId="9" r:id="rId5"/>
     <sheet name="機能概要_ステップ登録" sheetId="4" r:id="rId6"/>
     <sheet name="機能概要_目標確認" sheetId="11" r:id="rId7"/>
-    <sheet name="機能概要_足あと確認" sheetId="10" r:id="rId8"/>
-    <sheet name="機能概要_新規登録 (4)" sheetId="5" r:id="rId9"/>
-    <sheet name="機能概要_新規登録 (5)" sheetId="6" r:id="rId10"/>
-    <sheet name="機能概要_新規登録 (6)" sheetId="7" r:id="rId11"/>
+    <sheet name="機能概要_TODO登録" sheetId="13" r:id="rId8"/>
+    <sheet name="機能概要_足あと確認" sheetId="10" r:id="rId9"/>
+    <sheet name="機能概要_学習開始" sheetId="12" r:id="rId10"/>
+    <sheet name="機能概要_メモ登録" sheetId="15" r:id="rId11"/>
+    <sheet name="機能概要_メモ確認" sheetId="14" r:id="rId12"/>
+    <sheet name="機能概要_タグ登録" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="164">
   <si>
     <t>機能概要_新規登録画面</t>
     <rPh sb="0" eb="4">
@@ -295,13 +296,6 @@
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規登録</t>
-    <rPh sb="0" eb="4">
-      <t>シンキトウロク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -987,6 +981,723 @@
     <t>目標設定理由</t>
     <rPh sb="0" eb="6">
       <t>モクヒョウセッテイリユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名,目標番号,ステップ番号</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>モクヒョウバンゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ期限</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標名</t>
+    <rPh sb="0" eb="3">
+      <t>モクヒョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標期限</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標設定理由</t>
+    <rPh sb="0" eb="6">
+      <t>モクヒョウセッテイリユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ期限</t>
+    <rPh sb="4" eb="6">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス変更の表示機能</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ヒョウジキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要_足あと確認画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去に設定した目標とその結果を確認</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去の目標内容(登録日,ステップ名,ステータス)を10件まで遡って表示する</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>トウロクビ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>サカノボ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名(セッション情報)が引き継がれている事,過去のデータが表示される事</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標が未登録</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「まだ目標が登録されていません」</t>
+  </si>
+  <si>
+    <t>TODOからのみ遷移可能</t>
+  </si>
+  <si>
+    <t>機能概要_学習開始画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ガクシュウカイシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップを確認した上で今日やるべき事を登録する</t>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ(現在実行中とその先2つの内容)の表示,今日やる事の登録</t>
+    <rPh sb="5" eb="10">
+      <t>ゲンザイジッコウチュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要_TODO登録画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップの引継ぎ</t>
+    <rPh sb="5" eb="7">
+      <t>ヒキツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「目標・ステップを入力して下さい」</t>
+    <rPh sb="9" eb="11">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標番号,ステップ番号,やりたい事</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名,目標番号,ステップ番号</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>モクヒョウバンゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やりたい事</t>
+    <rPh sb="4" eb="5">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習日</t>
+    <rPh sb="0" eb="3">
+      <t>ガクシュウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標・ステップ・TODO内容を確認し学習を開始する</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標・ステップの表形式の表示,TODOの確認,学習の開始</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヒョウケイシキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODOが未登録</t>
+    <rPh sb="5" eb="8">
+      <t>ミトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「今日のTODOを設定して下さい」</t>
+    <rPh sb="9" eb="11">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODO登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習番号</t>
+    <rPh sb="0" eb="4">
+      <t>ガクシュウバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日やる事</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>達成率</t>
+    <rPh sb="0" eb="3">
+      <t>タッセイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要_メモ登録画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモの登録を行う</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモの登録の完了</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモが入力されている事</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「メモを入力して下さい」</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ登録</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名,メモ番号</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習内容</t>
+    <rPh sb="0" eb="4">
+      <t>ガクシュウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ内容</t>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ内容</t>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグが未登録</t>
+    <rPh sb="3" eb="6">
+      <t>ミトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「タグが未登録です。未登録のまま設定しますか？」</t>
+    <rPh sb="12" eb="15">
+      <t>ミトウロク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ミトウロク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要_メモ確認画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去に登録したメモ情報を確認できる</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標・ステップ・メモ内容の一覧表示</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモが登録されている事</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモが無い</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「表示できるメモがありません」</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要_タグ登録画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ登録時に種別として登録するタグの生成を行う</t>
+    <rPh sb="2" eb="5">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ欄にタグを登録する</t>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグを作成する</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグが未入力</t>
+    <rPh sb="3" eb="6">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「タグ名を入力して下さい」</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ番号</t>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標番号,ステップ番号</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウバンゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -995,7 +1706,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,6 +1719,22 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1185,7 +1912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1198,7 +1925,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1237,34 +1985,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1656,13 +2395,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1678,8 +2417,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4114800" y="3533775"/>
-          <a:ext cx="1704975" cy="695325"/>
+          <a:off x="4082143" y="3547382"/>
+          <a:ext cx="1694089" cy="698047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1717,13 +2456,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1778,13 +2517,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1839,13 +2578,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2015,13 +2754,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>176213</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>176213</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2034,14 +2773,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="2"/>
           <a:endCxn id="9" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2919413" y="2114550"/>
-          <a:ext cx="0" cy="361950"/>
+        <a:xfrm flipH="1">
+          <a:off x="2919413" y="3190875"/>
+          <a:ext cx="4762" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2074,13 +2812,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>176213</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2247,13 +2985,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>347663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>347663</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2301,13 +3039,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>347663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>347663</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2407,120 +3145,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>347663</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="コネクタ: カギ線 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24717BC5-9CFC-8DDF-1C33-E2CA1B2B75BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="2"/>
-          <a:endCxn id="11" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1104900" y="2919413"/>
-          <a:ext cx="700088" cy="1204912"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>347663</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="コネクタ: カギ線 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47562008-9B09-41E0-AAD5-BCCEAB78C916}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="3"/>
-          <a:endCxn id="8" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3762375" y="3171825"/>
-          <a:ext cx="1204913" cy="700088"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -2547,6 +3171,300 @@
         <a:xfrm flipV="1">
           <a:off x="3771900" y="1057275"/>
           <a:ext cx="342900" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F32768-823B-4C3B-AF36-489ADAFC17B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="2466975"/>
+          <a:ext cx="1714500" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TODO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D2B737-9CCD-4A7F-8087-B48144E9A513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3771900" y="2105025"/>
+          <a:ext cx="1195388" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0687198-9744-43D7-B212-3EC213F54ACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2900363" y="2124075"/>
+          <a:ext cx="4762" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>312963</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>351746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>306159</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>342221</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E0B6A3B-D4E6-496B-B08D-0AF1E4FB2A0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6095999" y="3535817"/>
+          <a:ext cx="1694089" cy="698047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タグ登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>306160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>336098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>306159</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>336098</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3531C3-E4E4-46C8-B58C-E5ECCB2A36A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5749017" y="3873955"/>
+          <a:ext cx="340178" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2873,89 +3791,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A27F652-FF2B-4C33-996C-5D45D897D662}">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14" s="25" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2964,45 +3892,777 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24379D3E-0B4F-4E29-9A83-F89F5E9D5EC9}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA19B411-8640-4288-9614-092185587FA4}">
+  <dimension ref="A2:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C19" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C20" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C21" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C22" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C23" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C24" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C25" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3132E84B-C821-4151-81E6-A478FB3F91A4}">
+          <x14:formula1>
+            <xm:f>作業リスト!$C$3:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A10:A14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FBDE2C65-C03D-49A3-B744-6F74F0A2505B}">
+          <x14:formula1>
+            <xm:f>作業リスト!$B$3:$B$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E755300-1C8D-40DD-9349-7C2EE58F8E65}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A01D81-8AE5-47A9-AD6E-4721182DB5CD}">
+  <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C19" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{74BF8015-2944-479F-8004-3121961BAA8D}">
+          <x14:formula1>
+            <xm:f>作業リスト!$B$3:$B$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11:B12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B7711BCF-0E89-4021-B63C-55C81F97488F}">
+          <x14:formula1>
+            <xm:f>作業リスト!$C$3:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A11:A12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D5CA68-FFC2-4B6E-AFCD-403F4A8C71BA}">
+  <dimension ref="A2:C18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C16" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{14ECC0DD-9FD5-499B-8A30-41FA145DD8D1}">
+          <x14:formula1>
+            <xm:f>作業リスト!$C$3:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FA99B15A-51F5-4E30-B0ED-143FA6774009}">
+          <x14:formula1>
+            <xm:f>作業リスト!$B$3:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32704E21-3C14-4928-8543-0DCEBF9E97A4}">
+  <dimension ref="A2:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D4E3BFA-0C08-46EF-AA7A-E59530233399}">
+          <x14:formula1>
+            <xm:f>作業リスト!$C$3:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A10:A11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{82B09557-0547-419F-AA45-D815CCFC664A}">
+          <x14:formula1>
+            <xm:f>作業リスト!$B$3:$B$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B374448D-74CC-4547-B92F-2CB335DDBAB4}">
-  <dimension ref="A1"/>
+  <dimension ref="N7:O8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="7" spans="14:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O7" s="28"/>
+    </row>
+    <row r="8" spans="14:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N8" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3018,23 +4678,23 @@
       <selection activeCell="C13" sqref="C13:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3042,8 +4702,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3051,8 +4711,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3060,8 +4720,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3071,8 +4731,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3080,14 +4740,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -3098,7 +4758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -3109,43 +4769,43 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="11"/>
+      <c r="C13" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1"/>
-      <c r="B15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C16" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="1" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3166,26 +4826,26 @@
   <dimension ref="A2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C15"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3193,8 +4853,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3202,8 +4862,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3211,8 +4871,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3222,8 +4882,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3231,14 +4891,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -3249,7 +4909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -3260,33 +4920,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="11"/>
+      <c r="C13" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1"/>
-      <c r="B15" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3306,113 +4966,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5B8EE-549A-4C18-9F76-86FCB6C92C92}">
   <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="11"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="19" t="s">
+      <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="24"/>
+      <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="19"/>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="24"/>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="19"/>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="18" t="s">
+      <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -3423,29 +5083,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -3456,16 +5116,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -3473,21 +5133,21 @@
         <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1"/>
-      <c r="B20" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C21" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="26" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3526,70 +5186,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D141E9-0B32-4178-ABBB-ED1197BD2503}">
   <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="11"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -3600,40 +5260,40 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -3641,26 +5301,35 @@
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="10"/>
+      <c r="C15" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3694,109 +5363,109 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3E4B05-3A11-407A-A54C-D90A795E15A2}">
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="11"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="24"/>
+      <c r="B6" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="19"/>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="24"/>
+      <c r="B7" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="19"/>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="19"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="24"/>
+      <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="19"/>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="18"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -3807,67 +5476,155 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>65</v>
+      <c r="C25" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C27" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C28" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C29" s="25" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3878,13 +5635,13 @@
           <x14:formula1>
             <xm:f>作業リスト!$B$3:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>B14:B16</xm:sqref>
+          <xm:sqref>B14:B21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78A40FA8-8BE1-4BDD-9BAF-7306203E2210}">
           <x14:formula1>
             <xm:f>作業リスト!$C$3:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A14:A16</xm:sqref>
+          <xm:sqref>A14:A21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3893,152 +5650,351 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693F410-AA2E-42AD-B3D3-F5FA5F369350}">
-  <dimension ref="A2:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABD3CBD-2973-4191-B931-CD033E8C08CF}">
+  <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C19" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EFB4920A-941A-43BF-9887-A2BA769EEBA8}">
+          <x14:formula1>
+            <xm:f>作業リスト!$C$3:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A10:A13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{215E8BAC-2007-41BB-BB5A-0DF0438C8E4C}">
+          <x14:formula1>
+            <xm:f>作業リスト!$B$3:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693F410-AA2E-42AD-B3D3-F5FA5F369350}">
+  <dimension ref="A2:C18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="11"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7"/>
+      <c r="C4" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="25" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4049,31 +6005,16 @@
           <x14:formula1>
             <xm:f>作業リスト!$C$3:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A11:A13</xm:sqref>
+          <xm:sqref>A10:A11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{440EB0C0-861E-47A3-85DA-DE784777BF9E}">
           <x14:formula1>
             <xm:f>作業リスト!$B$3:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>B11:B13</xm:sqref>
+          <xm:sqref>B10:B11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6F3D33-42FB-4F3E-83A0-DAD0F7EC3F76}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/オブジェクト図_機能概要.xlsx
+++ b/オブジェクト図_機能概要.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81805\Desktop\MokuKatsu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2871E12-0934-400D-8A5A-161D1ABA0D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAB4F8D-A14C-4905-A2D4-7198BE5009E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" tabRatio="893" firstSheet="6" activeTab="12" xr2:uid="{39B520BD-8DBE-4EA8-ADC3-9C5A988C0D05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" tabRatio="893" firstSheet="1" activeTab="8" xr2:uid="{39B520BD-8DBE-4EA8-ADC3-9C5A988C0D05}"/>
   </bookViews>
   <sheets>
-    <sheet name="作業リスト" sheetId="8" r:id="rId1"/>
-    <sheet name="MokuKatsu_作業構成と流れ" sheetId="1" r:id="rId2"/>
-    <sheet name="機能概要_新規登録" sheetId="2" r:id="rId3"/>
-    <sheet name="機能概要_ログイン" sheetId="3" r:id="rId4"/>
-    <sheet name="機能概要_目標登録" sheetId="9" r:id="rId5"/>
-    <sheet name="機能概要_ステップ登録" sheetId="4" r:id="rId6"/>
-    <sheet name="機能概要_目標確認" sheetId="11" r:id="rId7"/>
-    <sheet name="機能概要_TODO登録" sheetId="13" r:id="rId8"/>
-    <sheet name="機能概要_足あと確認" sheetId="10" r:id="rId9"/>
-    <sheet name="機能概要_学習開始" sheetId="12" r:id="rId10"/>
-    <sheet name="機能概要_メモ登録" sheetId="15" r:id="rId11"/>
-    <sheet name="機能概要_メモ確認" sheetId="14" r:id="rId12"/>
-    <sheet name="機能概要_タグ登録" sheetId="16" r:id="rId13"/>
+    <sheet name="作業リスト" sheetId="8" state="hidden" r:id="rId1"/>
+    <sheet name="リスト" sheetId="18" r:id="rId2"/>
+    <sheet name="画面構成" sheetId="1" r:id="rId3"/>
+    <sheet name="新規登録" sheetId="2" r:id="rId4"/>
+    <sheet name="ログイン" sheetId="3" r:id="rId5"/>
+    <sheet name="目標登録" sheetId="9" r:id="rId6"/>
+    <sheet name="ステップ登録" sheetId="4" r:id="rId7"/>
+    <sheet name="目標確認" sheetId="11" r:id="rId8"/>
+    <sheet name="TODO登録" sheetId="13" r:id="rId9"/>
+    <sheet name="足あと確認" sheetId="10" r:id="rId10"/>
+    <sheet name="学習開始" sheetId="12" r:id="rId11"/>
+    <sheet name="学習記録" sheetId="17" r:id="rId12"/>
+    <sheet name="メモ登録" sheetId="15" r:id="rId13"/>
+    <sheet name="メモ確認" sheetId="14" r:id="rId14"/>
+    <sheet name="タグ登録" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,17 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="164">
-  <si>
-    <t>機能概要_新規登録画面</t>
-    <rPh sb="0" eb="4">
-      <t>キノウガイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="11">
-      <t>シンキトウロクガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="189">
   <si>
     <t>ユーザ名,ID,パスワードを入力する</t>
   </si>
@@ -95,53 +87,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラーメッセージ「そのユーザ名は使用できません」</t>
-    <rPh sb="14" eb="15">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名が既存のもの</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名もしくはIDもしくはパスワードが未入力</t>
-    <rPh sb="20" eb="23">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ「未入力の項目があります」</t>
-    <rPh sb="9" eb="12">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能概要_ログイン画面</t>
-    <rPh sb="0" eb="4">
-      <t>キノウガイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遷移時に運ぶもの</t>
     <rPh sb="0" eb="3">
       <t>センイジ</t>
@@ -152,16 +97,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>次画面(遷移先)</t>
-    <rPh sb="0" eb="3">
-      <t>ツギガメン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>センイサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ID,パスワードを入力する</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -173,16 +108,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ名,ID,パスワードに誤り・重複が無い(過去の自分のもの,他人のもの)</t>
-    <rPh sb="14" eb="15">
-      <t>アヤマ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>チョウフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>過去もしくは現在使用中のものと比較するチェック機能</t>
   </si>
   <si>
@@ -193,16 +118,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ名(ログイン結果)</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遷移先と必要データ</t>
     <rPh sb="0" eb="3">
       <t>センイサキ</t>
@@ -233,20 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ID/パスワードの入力ミス</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ「IDもしくはパスワードに誤りがあります」</t>
-    <rPh sb="21" eb="22">
-      <t>アヤマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>必要箇所</t>
     <rPh sb="0" eb="4">
       <t>ヒツヨウカショ</t>
@@ -261,22 +162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機能概要_目標登録画面</t>
-    <rPh sb="0" eb="4">
-      <t>キノウガイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遷移画面</t>
     <rPh sb="0" eb="4">
       <t>センイガメン</t>
@@ -423,136 +308,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>目標名,設定理由,期限が入力されている事</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リユウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NG処理(目標名)</t>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>モクヒョウメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>字数が100字を超える</t>
-    <rPh sb="0" eb="2">
-      <t>ジスウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ「字数オーバーです」</t>
-    <rPh sb="9" eb="11">
-      <t>ジスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力不可文字(異体字等)が含まれる</t>
-    <rPh sb="0" eb="6">
-      <t>ニュウリョクフカモジ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>イタイジ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ「入力規則に適していない文字が含まれています」</t>
-    <rPh sb="9" eb="13">
-      <t>ニュウリョクキソク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力が無い</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NG処理(共通)</t>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ「全項目の入力は必須です」</t>
-    <rPh sb="9" eb="12">
-      <t>ゼンコウモク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NG処理(期限)</t>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>数値以外が入力されている場合</t>
     <rPh sb="0" eb="4">
       <t>スウチイガイ</t>
@@ -566,16 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラーメッセージ「数字のみを入力してください」</t>
-    <rPh sb="9" eb="11">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>今日より前の日付が設定されている場合</t>
     <rPh sb="0" eb="2">
       <t>キョウ</t>
@@ -595,15 +340,1242 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラーメッセージ「明日以降の日付を入力してください」</t>
-    <rPh sb="9" eb="13">
-      <t>アシタイコウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒヅケ</t>
+    <t>チェック機能(記入内容,字数,文字の種類)</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>キニュウナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ名と期限を登録する</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ名と期限が入力されている事</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標・ステップ・状況の確認</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報の一覧表示</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標が未入力</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ全てが達成済み</t>
+    <rPh sb="4" eb="5">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>タッセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名一覧</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標名</t>
+    <rPh sb="0" eb="3">
+      <t>モクヒョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標名</t>
+    <rPh sb="0" eb="3">
+      <t>モクヒョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標期限</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標設定理由</t>
+    <rPh sb="0" eb="6">
+      <t>モクヒョウセッテイリユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ期限</t>
+    <rPh sb="4" eb="6">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス変更の表示機能</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ヒョウジキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要_足あと確認画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去に設定した目標とその結果を確認</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去の目標内容(登録日,ステップ名,ステータス)を10件まで遡って表示する</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>トウロクビ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>サカノボ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名(セッション情報)が引き継がれている事,過去のデータが表示される事</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標が未登録</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「まだ目標が登録されていません」</t>
+  </si>
+  <si>
+    <t>TODOからのみ遷移可能</t>
+  </si>
+  <si>
+    <t>機能概要_学習開始画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ガクシュウカイシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップを確認した上で今日やるべき事を登録する</t>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ(現在実行中とその先2つの内容)の表示,今日やる事の登録</t>
+    <rPh sb="5" eb="10">
+      <t>ゲンザイジッコウチュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要_TODO登録画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップの引継ぎ</t>
+    <rPh sb="5" eb="7">
+      <t>ヒキツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「目標・ステップを入力して下さい」</t>
+    <rPh sb="9" eb="11">
+      <t>モクヒョウ</t>
     </rPh>
     <rPh sb="17" eb="19">
       <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標番号,ステップ番号,やりたい事</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名,目標番号,ステップ番号</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>モクヒョウバンゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やりたい事</t>
+    <rPh sb="4" eb="5">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習日</t>
+    <rPh sb="0" eb="3">
+      <t>ガクシュウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標・ステップ・TODO内容を確認し学習を開始する</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標・ステップの表形式の表示,TODOの確認,学習の開始</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヒョウケイシキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODOが未登録</t>
+    <rPh sb="5" eb="8">
+      <t>ミトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「今日のTODOを設定して下さい」</t>
+    <rPh sb="9" eb="11">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODO登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習番号</t>
+    <rPh sb="0" eb="4">
+      <t>ガクシュウバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日やる事</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>達成率</t>
+    <rPh sb="0" eb="3">
+      <t>タッセイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要_メモ登録画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモの登録を行う</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモの登録の完了</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモが入力されている事</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「メモを入力して下さい」</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ登録</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名,メモ番号</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習内容</t>
+    <rPh sb="0" eb="4">
+      <t>ガクシュウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ内容</t>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ内容</t>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグが未登録</t>
+    <rPh sb="3" eb="6">
+      <t>ミトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「タグが未登録です。未登録のまま設定しますか？」</t>
+    <rPh sb="12" eb="15">
+      <t>ミトウロク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ミトウロク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要_メモ確認画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去に登録したメモ情報を確認できる</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標・ステップ・メモ内容の一覧表示</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモが登録されている事</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモが無い</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「表示できるメモがありません」</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要_タグ登録画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ登録時に種別として登録するタグの生成を行う</t>
+    <rPh sb="2" eb="5">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ欄にタグを登録する</t>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグを作成する</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグが未入力</t>
+    <rPh sb="3" eb="6">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「タグ名を入力して下さい」</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ番号</t>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標番号,ステップ番号</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウバンゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要_学習記録画面</t>
+    <rPh sb="0" eb="4">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習終了後に記録する</t>
+    <rPh sb="0" eb="5">
+      <t>ガクシュウシュウリョウゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習内容の記録を完了する</t>
+    <rPh sb="0" eb="4">
+      <t>ガクシュウナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了後ステータス(ステップに対する振り返り)の入力,やった事の記入</t>
+    <rPh sb="0" eb="3">
+      <t>カンリョウゴ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップステータスが未登録</t>
+    <rPh sb="10" eb="13">
+      <t>ミトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「ステータスが入力されていません」</t>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やった事が未登録</t>
+    <rPh sb="3" eb="4">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「やった事が入力されていません」</t>
+    <rPh sb="12" eb="13">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名,目標番号,ステップ番号</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="16">
+      <t>モクヒョウバンゴウ､ステップバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日やった事</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移先(Oの場合)</t>
+    <rPh sb="0" eb="3">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去もしくは現在使用中のものと比較するチェック機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１～４</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名,ID,パスワードに誤り・重複が無い
+(過去の自分のもの,他人のもの)</t>
+    <rPh sb="14" eb="15">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理条件</t>
+    <rPh sb="0" eb="4">
+      <t>ショリジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名が既存</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1~3が未入力</t>
+    <rPh sb="4" eb="7">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのユーザ名は使用できません</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○○が未入力です</t>
+    <rPh sb="3" eb="6">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1~3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出力(I/O)</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面</t>
+    <rPh sb="0" eb="6">
+      <t>シンキトウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１～2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記入漏れが無いか確認する機能</t>
+    <rPh sb="0" eb="3">
+      <t>キニュウモ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1~2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1~2が未入力</t>
+    <rPh sb="4" eb="7">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1~2に誤り</t>
+    <rPh sb="4" eb="5">
+      <t>アヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○○に誤りがあります</t>
+    <rPh sb="3" eb="4">
+      <t>アヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標名</t>
+    <rPh sb="0" eb="3">
+      <t>モクヒョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期限</t>
+    <rPh sb="0" eb="2">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標設定理由</t>
+    <rPh sb="0" eb="6">
+      <t>モクヒョウセッテイリユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出力と遷移情報</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>センイジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標番号</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>目標名が20字を超える</t>
+    <rPh sb="0" eb="3">
+      <t>モクヒョウメイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>字数オーバーです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字を入力してください</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当日以降の日付を入力してください</t>
+    <rPh sb="0" eb="2">
+      <t>トウジツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標名,期限が入力されている事(設定理由は任意入力)</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>セッテイリユウ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ニンイニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -618,42 +1590,229 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チェック機能(記入内容,字数,文字の種類)</t>
+    <t>ステップ番号</t>
     <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>キニュウナイヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジスウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能概要_ステップ登録画面</t>
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人番号(ログイン結果)</t>
     <rPh sb="0" eb="4">
-      <t>キノウガイヨウ</t>
+      <t>コジンバンゴウ</t>
     </rPh>
     <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ登録画面</t>
+    <rPh sb="4" eb="6">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="11" eb="13">
+    <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>目標にたどり着く為のステップを最大7件まで登録する</t>
+    <t>入力チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１～３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1件も入力されていない</t>
+    <rPh sb="1" eb="2">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低1件の入力が必要です</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1~２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標確認画面</t>
     <rPh sb="0" eb="2">
       <t>モクヒョウ</t>
     </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習記録に従ってステータスを変更(ステップの完了状況,目標の到達率)</t>
+    <rPh sb="0" eb="4">
+      <t>ガクシュウキロク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>カンリョウジョウキョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録を行った目標・目標達成率・ステップ・各ステップステータスを確認できる</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>モクヒョウタッセイリツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ1が未入力</t>
+    <rPh sb="6" eb="9">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップを登録して下さい</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標を登録して下さい</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ○の期限が近づいています</t>
+    <rPh sb="6" eb="8">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ○の期限です</t>
+    <rPh sb="6" eb="8">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おめでとうございます！目標を達成しました！</t>
+    <rPh sb="11" eb="13">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップの期限が「当日-3」の時</t>
+    <rPh sb="5" eb="7">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウジツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップの期限が「当日」の時</t>
+    <rPh sb="5" eb="7">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウジツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標にたどり着く為のステップを最大5件まで登録する</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
     <rPh sb="6" eb="7">
       <t>ツ</t>
     </rPh>
@@ -668,1036 +1827,6 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップ名と期限を登録する</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>遷移先と必要データ(データ処理)</t>
-    <rPh sb="0" eb="3">
-      <t>センイサキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップ名と期限が入力されている事</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップ名,期限が1つも入力されていない</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ「最低1件のデータ入力が必要です」</t>
-    <rPh sb="9" eb="11">
-      <t>サイテイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標番号</t>
-    <rPh sb="0" eb="4">
-      <t>モクヒョウバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標番号,ステップ番号</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標登録</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特になし</t>
-    <rPh sb="0" eb="1">
-      <t>トク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能概要_目標確認画面</t>
-    <rPh sb="0" eb="4">
-      <t>キノウガイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録を行った目標・ステップ・状況を確認できる</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標・ステップ・状況の確認</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>情報の一覧表示</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>イチランヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標が未入力</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ「目標を入力して下さい」→目標登録画面へ</t>
-    <rPh sb="9" eb="11">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>クダ</t>
-    </rPh>
-    <rPh sb="21" eb="27">
-      <t>モクヒョウトウロクガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップ全てが達成済み</t>
-    <rPh sb="4" eb="5">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>タッセイズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ「ステップをすべて達成しています。新たな内容を入力して下さい」</t>
-    <rPh sb="17" eb="19">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>クダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名一覧</t>
-    <rPh sb="0" eb="3">
-      <t>コウモクメイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>性別</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出身地</t>
-    <rPh sb="0" eb="3">
-      <t>シュッシンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッションにて情報を受け渡す機能</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェック機能(記入内容,字数,文字の種類)
-※画面共通機能</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>キニュウナイヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジスウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="23" eb="29">
-      <t>ガメンキョウツウキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標名</t>
-    <rPh sb="0" eb="3">
-      <t>モクヒョウメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標期限</t>
-    <rPh sb="0" eb="4">
-      <t>モクヒョウキゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標設定理由</t>
-    <rPh sb="0" eb="6">
-      <t>モクヒョウセッテイリユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>ユーザ名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名,目標番号,ステップ番号</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>モクヒョウバンゴウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップ名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップ期限</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標名</t>
-    <rPh sb="0" eb="3">
-      <t>モクヒョウメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標期限</t>
-    <rPh sb="0" eb="4">
-      <t>モクヒョウキゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標設定理由</t>
-    <rPh sb="0" eb="6">
-      <t>モクヒョウセッテイリユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップ名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップ期限</t>
-    <rPh sb="4" eb="6">
-      <t>キゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステータス変更の表示機能</t>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ヒョウジキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能概要_足あと確認画面</t>
-    <rPh sb="0" eb="4">
-      <t>キノウガイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アシ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップステータス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>過去に設定した目標とその結果を確認</t>
-    <rPh sb="0" eb="2">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>過去の目標内容(登録日,ステップ名,ステータス)を10件まで遡って表示する</t>
-    <rPh sb="0" eb="2">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>トウロクビ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>サカノボ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名(セッション情報)が引き継がれている事,過去のデータが表示される事</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標が未登録</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ミトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ「まだ目標が登録されていません」</t>
-  </si>
-  <si>
-    <t>TODOからのみ遷移可能</t>
-  </si>
-  <si>
-    <t>機能概要_学習開始画面</t>
-    <rPh sb="0" eb="4">
-      <t>キノウガイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ガクシュウカイシ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップを確認した上で今日やるべき事を登録する</t>
-    <rPh sb="5" eb="7">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップ(現在実行中とその先2つの内容)の表示,今日やる事の登録</t>
-    <rPh sb="5" eb="10">
-      <t>ゲンザイジッコウチュウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能概要_TODO登録画面</t>
-    <rPh sb="0" eb="4">
-      <t>キノウガイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップの引継ぎ</t>
-    <rPh sb="5" eb="7">
-      <t>ヒキツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ「目標・ステップを入力して下さい」</t>
-    <rPh sb="9" eb="11">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>クダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標番号,ステップ番号,やりたい事</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名,目標番号,ステップ番号</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>モクヒョウバンゴウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップ名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>やりたい事</t>
-    <rPh sb="4" eb="5">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学習日</t>
-    <rPh sb="0" eb="3">
-      <t>ガクシュウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標・ステップ・TODO内容を確認し学習を開始する</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標・ステップの表形式の表示,TODOの確認,学習の開始</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ヒョウケイシキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TODOが未登録</t>
-    <rPh sb="5" eb="8">
-      <t>ミトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ「今日のTODOを設定して下さい」</t>
-    <rPh sb="9" eb="11">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>クダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TODO登録</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学習番号</t>
-    <rPh sb="0" eb="4">
-      <t>ガクシュウバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップステータス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今日やる事</t>
-    <rPh sb="0" eb="2">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>達成率</t>
-    <rPh sb="0" eb="3">
-      <t>タッセイリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能概要_メモ登録画面</t>
-    <rPh sb="0" eb="4">
-      <t>キノウガイヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メモの登録を行う</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メモの登録の完了</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メモが入力されている事</t>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ「メモを入力して下さい」</t>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>クダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグ登録</t>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名,メモ番号</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学習内容</t>
-    <rPh sb="0" eb="4">
-      <t>ガクシュウナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステップ内容</t>
-    <rPh sb="4" eb="6">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メモ内容</t>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグ内容</t>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグが未登録</t>
-    <rPh sb="3" eb="6">
-      <t>ミトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ「タグが未登録です。未登録のまま設定しますか？」</t>
-    <rPh sb="12" eb="15">
-      <t>ミトウロク</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ミトウロク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能概要_メモ確認画面</t>
-    <rPh sb="0" eb="4">
-      <t>キノウガイヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>過去に登録したメモ情報を確認できる</t>
-    <rPh sb="0" eb="2">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標・ステップ・メモ内容の一覧表示</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>イチランヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メモが登録されている事</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メモが無い</t>
-    <rPh sb="3" eb="4">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ「表示できるメモがありません」</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メモ名</t>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能概要_タグ登録画面</t>
-    <rPh sb="0" eb="4">
-      <t>キノウガイヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メモ登録時に種別として登録するタグの生成を行う</t>
-    <rPh sb="2" eb="5">
-      <t>トウロクジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュベツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メモ欄にタグを登録する</t>
-    <rPh sb="2" eb="3">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグを作成する</t>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグが未入力</t>
-    <rPh sb="3" eb="6">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ「タグ名を入力して下さい」</t>
-    <rPh sb="11" eb="12">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>クダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグ番号</t>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標番号,ステップ番号</t>
-    <rPh sb="0" eb="4">
-      <t>モクヒョウバンゴウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1739,7 +1868,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1785,6 +1914,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1912,7 +2065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1931,17 +2084,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1970,41 +2129,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2417,8 +2633,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4082143" y="3547382"/>
-          <a:ext cx="1694089" cy="698047"/>
+          <a:off x="4114800" y="3533775"/>
+          <a:ext cx="1704975" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3378,15 +3594,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>312963</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>341538</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>351746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>306159</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>334734</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>342221</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3402,8 +3618,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6095999" y="3535817"/>
-          <a:ext cx="1694089" cy="698047"/>
+          <a:off x="4113438" y="4580846"/>
+          <a:ext cx="1707696" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3439,23 +3655,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>306160</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>336098</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>306159</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>336098</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3531C3-E4E4-46C8-B58C-E5ECCB2A36A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FB37EB-97B3-4DFD-B396-1F588C8D5BE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,8 +3679,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5749017" y="3873955"/>
-          <a:ext cx="340178" cy="0"/>
+          <a:off x="4967288" y="4229100"/>
+          <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3805,84 +4021,84 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B13" s="25" t="s">
-        <v>130</v>
+      <c r="B13" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="25" t="s">
-        <v>140</v>
+      <c r="B14" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3892,6 +4108,180 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693F410-AA2E-42AD-B3D3-F5FA5F369350}">
+  <dimension ref="A2:C18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="15"/>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="16"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{64551813-24D5-4F9C-9F3B-B1A43F30BA3A}">
+          <x14:formula1>
+            <xm:f>作業リスト!$C$3:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A10:A11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{440EB0C0-861E-47A3-85DA-DE784777BF9E}">
+          <x14:formula1>
+            <xm:f>作業リスト!$B$3:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA19B411-8640-4288-9614-092185587FA4}">
   <dimension ref="A2:C25"/>
   <sheetViews>
@@ -3907,185 +4297,185 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>127</v>
+      <c r="C4" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="30" t="s">
-        <v>6</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>131</v>
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>96</v>
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C21" s="25" t="s">
-        <v>104</v>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C22" s="25" t="s">
-        <v>132</v>
+      <c r="C22" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C23" s="25" t="s">
-        <v>133</v>
+      <c r="C23" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C24" s="25" t="s">
-        <v>125</v>
+      <c r="C24" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C25" s="25" t="s">
-        <v>134</v>
+      <c r="C25" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4118,7 +4508,180 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AED83B-1B94-444D-A6D1-9402150B1D9A}">
+  <dimension ref="A2:C18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="15"/>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="16"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{59C3059A-C680-49EC-94CC-F5DC07D9234B}">
+          <x14:formula1>
+            <xm:f>作業リスト!$B$3:$B$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDE8F616-8735-4DE1-BDBC-D25756C66FAC}">
+          <x14:formula1>
+            <xm:f>作業リスト!$C$3:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A01D81-8AE5-47A9-AD6E-4721182DB5CD}">
   <dimension ref="A2:C19"/>
   <sheetViews>
@@ -4134,142 +4697,142 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="8" t="s">
-        <v>84</v>
+      <c r="A14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="25"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C18" s="1" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C19" s="25" t="s">
-        <v>145</v>
+      <c r="C19" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4302,7 +4865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D5CA68-FFC2-4B6E-AFCD-403F4A8C71BA}">
   <dimension ref="A2:C18"/>
   <sheetViews>
@@ -4318,131 +4881,131 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8" t="s">
-        <v>84</v>
+      <c r="A12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="25" t="s">
-        <v>105</v>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C16" s="1" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C17" s="25" t="s">
-        <v>132</v>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C18" s="25" t="s">
-        <v>154</v>
+      <c r="C18" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4475,12 +5038,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32704E21-3C14-4928-8543-0DCEBF9E97A4}">
-  <dimension ref="A2:C18"/>
+  <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4491,128 +5054,117 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="8" t="s">
-        <v>84</v>
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C18" s="25"/>
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4645,21 +5197,105 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A98445-A0FD-4518-BCBF-DF8AD25C4EC8}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B374448D-74CC-4547-B92F-2CB335DDBAB4}">
   <dimension ref="N7:O8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="7" spans="14:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O7" s="28"/>
+      <c r="O7" s="10"/>
     </row>
     <row r="8" spans="14:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N8" s="29" t="s">
-        <v>114</v>
+      <c r="N8" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4670,511 +5306,416 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772763EA-4A97-41D7-BF1F-7706FCD5CE65}">
-  <dimension ref="A2:C17"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1" t="s">
+      <c r="B9" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="22">
+        <v>2</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="22">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B11" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="1" t="s">
+      <c r="B12" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D13" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C16" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C17" s="1" t="s">
-        <v>88</v>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="36"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="24">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A5"/>
+  <mergeCells count="1">
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 D9:D11 D12:D13" xr:uid="{63F30507-29EB-48EF-87E4-39C6837BE586}">
+      <formula1>"I,O"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98017A99-C2C7-4D57-9359-9B50FA61EAC6}">
-  <dimension ref="A2:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A13:B13"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7BA8199E-A330-4FF2-B1D7-8E5A047A0B4C}">
+          <x14:formula1>
+            <xm:f>リスト!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9:C13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5B8EE-549A-4C18-9F76-86FCB6C92C92}">
-  <dimension ref="A2:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98017A99-C2C7-4D57-9359-9B50FA61EAC6}">
+  <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="58.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="22">
+        <v>1</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="22">
+        <v>2</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="22">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="1" t="s">
+      <c r="B11" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="30"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="24"/>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="24"/>
-      <c r="B9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C17" s="36"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="8" t="s">
-        <v>84</v>
+      <c r="A18" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
+      <c r="A19" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="9" t="s">
-        <v>90</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C21" s="1" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="2">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D11 B12" xr:uid="{ED114E9C-3A5A-431D-B876-472C5C152FC8}">
+      <formula1>"I,O"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BEC16227-241F-4DE1-8785-9CDB1065758C}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0CB423C3-C7CE-43DB-9E63-D5AA76C91095}">
           <x14:formula1>
-            <xm:f>作業リスト!$C$3:$C$4</xm:f>
+            <xm:f>リスト!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>A14:A16</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1157988E-C351-4702-8E67-D2D8ACE3C9B4}">
-          <x14:formula1>
-            <xm:f>作業リスト!$B$3:$B$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>B14:B16</xm:sqref>
+          <xm:sqref>C9:C11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5183,177 +5724,286 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D141E9-0B32-4178-ABBB-ED1197BD2503}">
-  <dimension ref="A2:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5B8EE-549A-4C18-9F76-86FCB6C92C92}">
+  <dimension ref="A2:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="22">
+        <v>1</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="22">
+        <v>2</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="22">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="1" t="s">
+      <c r="B11" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="22">
+        <v>4</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="B13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D15" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="44"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>99</v>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="36"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="24">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="24">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A8:C8"/>
+  <mergeCells count="1">
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16" xr:uid="{FC254CCA-BBD8-4592-8FE1-00656E86B1EB}">
+      <formula1>"I,O"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{062DE07E-A6BD-4A74-A4E5-890ABDAE8C9C}">
+      <formula1>"I,O,I/O"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E0B2DBF-C073-40E2-B6AE-A8C0838DA2F8}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7FE2A11-77B4-42F2-A2C4-19C2DA5732B7}">
           <x14:formula1>
-            <xm:f>作業リスト!$B$3:$B$12</xm:f>
+            <xm:f>リスト!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B10:B13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78A13590-9B92-44E6-9C3E-BD7663063911}">
-          <x14:formula1>
-            <xm:f>作業リスト!$C$3:$C$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>A10:A13</xm:sqref>
+          <xm:sqref>C9:C15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5362,286 +6012,213 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3E4B05-3A11-407A-A54C-D90A795E15A2}">
-  <dimension ref="A2:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D141E9-0B32-4178-ABBB-ED1197BD2503}">
+  <dimension ref="A2:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="22">
+        <v>1</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="22">
+        <v>2</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="22">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="1" t="s">
+      <c r="B11" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="22">
+        <v>4</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="24"/>
-      <c r="B6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="24"/>
-      <c r="B7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="24"/>
-      <c r="B9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>96</v>
+      <c r="A19" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
+      <c r="A20" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
+      <c r="A21" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C27" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C28" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C29" s="25" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:C12"/>
+  <mergeCells count="1">
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{3B003046-F174-4676-A34F-8EE9B7C22CBB}">
+      <formula1>"I,O"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D12" xr:uid="{E9E0424F-2426-420B-A381-350AAB300611}">
+      <formula1>"I,O,I/O"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F6D1728-D98A-4040-A0EA-2C6281FFA648}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A1B18980-8BE8-4BDA-8471-2159ED2E041C}">
           <x14:formula1>
-            <xm:f>作業リスト!$B$3:$B$12</xm:f>
+            <xm:f>リスト!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B14:B21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78A40FA8-8BE1-4BDD-9BAF-7306203E2210}">
-          <x14:formula1>
-            <xm:f>作業リスト!$C$3:$C$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>A14:A21</xm:sqref>
+          <xm:sqref>C9:C12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5650,10 +6227,214 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3E4B05-3A11-407A-A54C-D90A795E15A2}">
+  <dimension ref="A3:D25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="24"/>
+      <c r="B14" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="36"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="24"/>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="24"/>
+      <c r="B19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="24"/>
+      <c r="B20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="24"/>
+      <c r="B21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="24"/>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 D10" xr:uid="{04459708-160F-4E16-9C80-1044666FF742}">
+      <formula1>"I,O"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2031946F-4DA0-4384-9E93-2D07B3F8FEAE}">
+          <x14:formula1>
+            <xm:f>リスト!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABD3CBD-2973-4191-B931-CD033E8C08CF}">
   <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -5665,154 +6446,154 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="8" t="s">
-        <v>84</v>
+      <c r="A15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="25" t="s">
-        <v>105</v>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C19" s="1" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5843,178 +6624,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693F410-AA2E-42AD-B3D3-F5FA5F369350}">
-  <dimension ref="A2:C18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C16" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C17" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C18" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A13:B13"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{64551813-24D5-4F9C-9F3B-B1A43F30BA3A}">
-          <x14:formula1>
-            <xm:f>作業リスト!$C$3:$C$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>A10:A11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{440EB0C0-861E-47A3-85DA-DE784777BF9E}">
-          <x14:formula1>
-            <xm:f>作業リスト!$B$3:$B$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>B10:B11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/オブジェクト図_機能概要.xlsx
+++ b/オブジェクト図_機能概要.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81805\Desktop\MokuKatsu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAB4F8D-A14C-4905-A2D4-7198BE5009E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B971908-A02A-4C40-AFE7-1F549DE81CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" tabRatio="893" firstSheet="1" activeTab="8" xr2:uid="{39B520BD-8DBE-4EA8-ADC3-9C5A988C0D05}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="19530" windowHeight="11130" tabRatio="893" firstSheet="1" activeTab="9" xr2:uid="{39B520BD-8DBE-4EA8-ADC3-9C5A988C0D05}"/>
   </bookViews>
   <sheets>
     <sheet name="作業リスト" sheetId="8" state="hidden" r:id="rId1"/>
     <sheet name="リスト" sheetId="18" r:id="rId2"/>
-    <sheet name="画面構成" sheetId="1" r:id="rId3"/>
-    <sheet name="新規登録" sheetId="2" r:id="rId4"/>
-    <sheet name="ログイン" sheetId="3" r:id="rId5"/>
-    <sheet name="目標登録" sheetId="9" r:id="rId6"/>
-    <sheet name="ステップ登録" sheetId="4" r:id="rId7"/>
-    <sheet name="目標確認" sheetId="11" r:id="rId8"/>
-    <sheet name="TODO登録" sheetId="13" r:id="rId9"/>
-    <sheet name="足あと確認" sheetId="10" r:id="rId10"/>
-    <sheet name="学習開始" sheetId="12" r:id="rId11"/>
-    <sheet name="学習記録" sheetId="17" r:id="rId12"/>
-    <sheet name="メモ登録" sheetId="15" r:id="rId13"/>
-    <sheet name="メモ確認" sheetId="14" r:id="rId14"/>
-    <sheet name="タグ登録" sheetId="16" r:id="rId15"/>
+    <sheet name="共通部分内容" sheetId="19" r:id="rId3"/>
+    <sheet name="画面構成" sheetId="1" r:id="rId4"/>
+    <sheet name="新規登録" sheetId="2" r:id="rId5"/>
+    <sheet name="ログイン" sheetId="3" r:id="rId6"/>
+    <sheet name="目標登録" sheetId="9" r:id="rId7"/>
+    <sheet name="ステップ登録" sheetId="4" r:id="rId8"/>
+    <sheet name="目標確認" sheetId="11" r:id="rId9"/>
+    <sheet name="TODO登録" sheetId="13" r:id="rId10"/>
+    <sheet name="足あと確認" sheetId="10" r:id="rId11"/>
+    <sheet name="学習開始" sheetId="12" r:id="rId12"/>
+    <sheet name="学習記録" sheetId="17" r:id="rId13"/>
+    <sheet name="メモ登録" sheetId="15" r:id="rId14"/>
+    <sheet name="メモ確認" sheetId="14" r:id="rId15"/>
+    <sheet name="タグ登録" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="196">
   <si>
     <t>ユーザ名,ID,パスワードを入力する</t>
   </si>
@@ -1353,16 +1354,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>そのユーザ名は使用できません</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○○が未入力です</t>
     <rPh sb="3" eb="6">
       <t>ミニュウリョク</t>
@@ -1827,6 +1818,60 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス分類</t>
+    <rPh sb="3" eb="5">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成名</t>
+    <rPh sb="0" eb="3">
+      <t>コウセイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用場面</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウバメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ内容
+(Constの場合)</t>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Const</t>
+  </si>
+  <si>
+    <t>エラー</t>
+  </si>
+  <si>
+    <t>そのユーザ名は既に使用されています</t>
+  </si>
+  <si>
+    <t>そのユーザ名は既に使用されています</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2065,7 +2110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2102,47 +2147,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -2152,18 +2158,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -2198,7 +2192,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2221,6 +2215,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4013,13 +4055,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4027,7 +4069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
@@ -4035,7 +4077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
@@ -4043,60 +4085,60 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1" t="s">
         <v>90</v>
       </c>
@@ -4108,6 +4150,341 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABD3CBD-2973-4191-B931-CD033E8C08CF}">
+  <dimension ref="A2:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="12"/>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="12"/>
+      <c r="B19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="12"/>
+      <c r="B20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="12"/>
+      <c r="B21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="12"/>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 D10" xr:uid="{E0AD4039-FA38-4D02-BA8A-DB27DB17ADEF}">
+      <formula1>"I,O"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EFB4920A-941A-43BF-9887-A2BA769EEBA8}">
+          <x14:formula1>
+            <xm:f>作業リスト!$C$3:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E10:E13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{215E8BAC-2007-41BB-BB5A-0DF0438C8E4C}">
+          <x14:formula1>
+            <xm:f>作業リスト!$B$3:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>F10:F13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{49FA5094-E639-4C89-AF20-8CB2C8760B98}">
+          <x14:formula1>
+            <xm:f>リスト!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693F410-AA2E-42AD-B3D3-F5FA5F369350}">
   <dimension ref="A2:C18"/>
   <sheetViews>
@@ -4115,22 +4492,22 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="45"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4138,8 +4515,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="46"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4147,8 +4524,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="47"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4156,7 +4533,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -4167,14 +4544,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -4185,7 +4562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -4196,7 +4573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -4207,16 +4584,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -4227,7 +4604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>9</v>
@@ -4236,17 +4613,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
@@ -4281,7 +4658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA19B411-8640-4288-9614-092185587FA4}">
   <dimension ref="A2:C25"/>
   <sheetViews>
@@ -4289,22 +4666,22 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="45"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4312,8 +4689,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="46"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4321,8 +4698,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="47"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4330,7 +4707,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4341,14 +4718,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -4359,7 +4736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -4370,7 +4747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -4381,7 +4758,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -4392,7 +4769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -4403,7 +4780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -4414,16 +4791,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -4434,7 +4811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>9</v>
@@ -4443,37 +4820,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="1" t="s">
         <v>84</v>
       </c>
@@ -4508,7 +4885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AED83B-1B94-444D-A6D1-9402150B1D9A}">
   <dimension ref="A2:C18"/>
   <sheetViews>
@@ -4516,22 +4893,22 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="45"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4539,8 +4916,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="46"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4548,8 +4925,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="47"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4557,8 +4934,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4568,8 +4945,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="21"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="50"/>
       <c r="B7" s="1" t="s">
         <v>120</v>
       </c>
@@ -4577,14 +4954,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -4595,7 +4972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -4606,16 +4983,16 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -4626,7 +5003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>9</v>
@@ -4635,17 +5012,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1" t="s">
         <v>123</v>
       </c>
@@ -4681,7 +5058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A01D81-8AE5-47A9-AD6E-4721182DB5CD}">
   <dimension ref="A2:C19"/>
   <sheetViews>
@@ -4689,22 +5066,22 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="45"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4712,8 +5089,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="46"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4721,8 +5098,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="47"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4730,7 +5107,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>44</v>
@@ -4739,7 +5116,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>96</v>
@@ -4748,17 +5125,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -4769,7 +5146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -4780,7 +5157,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -4791,16 +5168,16 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -4811,26 +5188,26 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1" t="s">
         <v>95</v>
       </c>
@@ -4865,7 +5242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D5CA68-FFC2-4B6E-AFCD-403F4A8C71BA}">
   <dimension ref="A2:C18"/>
   <sheetViews>
@@ -4873,22 +5250,22 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="45"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4896,8 +5273,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="46"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4905,8 +5282,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="47"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4914,7 +5291,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>102</v>
@@ -4923,17 +5300,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -4944,7 +5321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -4955,16 +5332,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -4975,7 +5352,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>39</v>
@@ -4984,7 +5361,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>55</v>
@@ -4993,17 +5370,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1" t="s">
         <v>104</v>
       </c>
@@ -5038,7 +5415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32704E21-3C14-4928-8543-0DCEBF9E97A4}">
   <dimension ref="A2:C15"/>
   <sheetViews>
@@ -5046,22 +5423,22 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="45"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5069,8 +5446,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="46"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5078,8 +5455,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="47"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5087,7 +5464,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>110</v>
@@ -5096,17 +5473,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -5117,7 +5494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -5128,7 +5505,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -5139,16 +5516,16 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -5159,7 +5536,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -5200,76 +5577,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A98445-A0FD-4518-BCBF-DF8AD25C4EC8}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>90</v>
       </c>
@@ -5281,6 +5658,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EBF50D-D6AC-4FFC-809E-620783E2C652}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{2A843B48-93AD-45C6-89EA-FF61B11EE0F4}">
+      <formula1>"Const,Logic,Util,Dba,Html,Css,Js"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{AB849FA3-3B1A-4782-9AEC-1F383EA2BB3B}">
+      <formula1>"エラー,警告,情報,書式変換,データ操作"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0FD7D959-E282-4C64-8283-E19B2F8F56DD}">
+          <x14:formula1>
+            <xm:f>リスト!$A$2:$A$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B374448D-74CC-4547-B92F-2CB335DDBAB4}">
   <dimension ref="N7:O8"/>
   <sheetViews>
@@ -5288,12 +5733,12 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="7" spans="14:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="14:15" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="14:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="14:15" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="N8" s="11" t="s">
         <v>64</v>
       </c>
@@ -5306,29 +5751,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772763EA-4A97-41D7-BF1F-7706FCD5CE65}">
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="34"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5336,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5344,7 +5789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5352,153 +5797,153 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="35" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="22">
+      <c r="D8" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="22">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="22">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="22">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="43" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="25"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="24" t="s">
+      <c r="C16" s="36"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="26"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42" t="s">
+      <c r="C17" s="13"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="36"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="37" t="s">
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="24">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="12">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="24" t="s">
-        <v>141</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5527,27 +5972,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98017A99-C2C7-4D57-9359-9B50FA61EAC6}">
   <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="58.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="2" max="2" width="19.58203125" customWidth="1"/>
+    <col min="3" max="3" width="58.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="28"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5555,7 +6000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5563,7 +6008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5571,129 +6016,129 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="35" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="22">
+      <c r="D8" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="22">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="22">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
+      <c r="D11" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="30"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C14" s="41"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="C15" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="26"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="36"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="24" t="s">
+      <c r="B19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5723,29 +6168,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5B8EE-549A-4C18-9F76-86FCB6C92C92}">
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="34"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5753,7 +6198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5761,107 +6206,107 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="22">
+      <c r="D8" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>154</v>
+      <c r="B9" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="22">
+      <c r="D9" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>155</v>
+      <c r="B10" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="22">
+      <c r="D10" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>156</v>
+      <c r="B11" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="22">
+      <c r="D11" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>158</v>
+      <c r="B12" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D12" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -5871,11 +6316,11 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -5885,101 +6330,101 @@
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="44"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="43" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="25"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" s="26" t="s">
+      <c r="C18" s="36"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="26"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42" t="s">
+      <c r="B19" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="36"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="37" t="s">
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="24">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="12">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="24">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="12">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="24">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="12">
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6011,34 +6456,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D141E9-0B32-4178-ABBB-ED1197BD2503}">
   <dimension ref="A2:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="34"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6046,7 +6492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6054,147 +6500,147 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="35" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="22">
+      <c r="D8" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="22">
-        <v>2</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="D11" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="22">
-        <v>3</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="22">
-        <v>4</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="43" t="s">
+      <c r="D12" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="25"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="26"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42" t="s">
+      <c r="C15" s="36"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="36"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="37" t="s">
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="24" t="s">
-        <v>146</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="12" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="24" t="s">
-        <v>174</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6226,37 +6672,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3E4B05-3A11-407A-A54C-D90A795E15A2}">
   <dimension ref="A3:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="34"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -6264,7 +6710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6272,136 +6718,136 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="35" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="43" t="s">
+      <c r="D9" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="25"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="24"/>
-      <c r="B14" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="26"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42" t="s">
+      <c r="C13" s="36"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="36"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="37" t="s">
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="12"/>
+      <c r="B19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="12"/>
+      <c r="B20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="24"/>
-      <c r="B19" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="24"/>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="12"/>
+      <c r="B21" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="24"/>
-      <c r="B21" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="49" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="24"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="12"/>
       <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6428,200 +6874,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABD3CBD-2973-4191-B931-CD033E8C08CF}">
-  <dimension ref="A2:C19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C19" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A15:B15"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EFB4920A-941A-43BF-9887-A2BA769EEBA8}">
-          <x14:formula1>
-            <xm:f>作業リスト!$C$3:$C$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>A10:A13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{215E8BAC-2007-41BB-BB5A-0DF0438C8E4C}">
-          <x14:formula1>
-            <xm:f>作業リスト!$B$3:$B$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>B10:B13</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/オブジェクト図_機能概要.xlsx
+++ b/オブジェクト図_機能概要.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81805\Desktop\MokuKatsu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B971908-A02A-4C40-AFE7-1F549DE81CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BB53E3-B412-4E9B-B6F6-91F7F6FBFEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="19530" windowHeight="11130" tabRatio="893" firstSheet="1" activeTab="9" xr2:uid="{39B520BD-8DBE-4EA8-ADC3-9C5A988C0D05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" tabRatio="893" firstSheet="1" activeTab="1" xr2:uid="{39B520BD-8DBE-4EA8-ADC3-9C5A988C0D05}"/>
   </bookViews>
   <sheets>
     <sheet name="作業リスト" sheetId="8" state="hidden" r:id="rId1"/>
-    <sheet name="リスト" sheetId="18" r:id="rId2"/>
-    <sheet name="共通部分内容" sheetId="19" r:id="rId3"/>
-    <sheet name="画面構成" sheetId="1" r:id="rId4"/>
-    <sheet name="新規登録" sheetId="2" r:id="rId5"/>
-    <sheet name="ログイン" sheetId="3" r:id="rId6"/>
-    <sheet name="目標登録" sheetId="9" r:id="rId7"/>
-    <sheet name="ステップ登録" sheetId="4" r:id="rId8"/>
-    <sheet name="目標確認" sheetId="11" r:id="rId9"/>
-    <sheet name="TODO登録" sheetId="13" r:id="rId10"/>
-    <sheet name="足あと確認" sheetId="10" r:id="rId11"/>
-    <sheet name="学習開始" sheetId="12" r:id="rId12"/>
-    <sheet name="学習記録" sheetId="17" r:id="rId13"/>
-    <sheet name="メモ登録" sheetId="15" r:id="rId14"/>
-    <sheet name="メモ確認" sheetId="14" r:id="rId15"/>
-    <sheet name="タグ登録" sheetId="16" r:id="rId16"/>
+    <sheet name="追加したい作業" sheetId="20" r:id="rId2"/>
+    <sheet name="リスト" sheetId="18" r:id="rId3"/>
+    <sheet name="共通部分内容" sheetId="19" r:id="rId4"/>
+    <sheet name="画面構成" sheetId="1" r:id="rId5"/>
+    <sheet name="新規登録" sheetId="2" r:id="rId6"/>
+    <sheet name="ログイン" sheetId="3" r:id="rId7"/>
+    <sheet name="目標登録" sheetId="9" r:id="rId8"/>
+    <sheet name="ステップ登録" sheetId="4" r:id="rId9"/>
+    <sheet name="目標確認" sheetId="11" r:id="rId10"/>
+    <sheet name="TODO登録" sheetId="13" r:id="rId11"/>
+    <sheet name="足あと確認" sheetId="10" r:id="rId12"/>
+    <sheet name="学習開始" sheetId="12" r:id="rId13"/>
+    <sheet name="学習記録" sheetId="17" r:id="rId14"/>
+    <sheet name="メモ登録" sheetId="15" r:id="rId15"/>
+    <sheet name="メモ確認" sheetId="14" r:id="rId16"/>
+    <sheet name="タグ登録" sheetId="16" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="205">
   <si>
     <t>ユーザ名,ID,パスワードを入力する</t>
   </si>
@@ -1857,9 +1858,6 @@
     <t>Const</t>
   </si>
   <si>
-    <t>エラー</t>
-  </si>
-  <si>
     <t>そのユーザ名は既に使用されています</t>
   </si>
   <si>
@@ -1872,6 +1870,87 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>追加したい内容</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッション管理</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータスの切り替え</t>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面共通</t>
+    <rPh sb="0" eb="5">
+      <t>ゼンガメンキョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー発生画面の作成</t>
+    <rPh sb="3" eb="5">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標登録の個別制御</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウトウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ登録の個別制御</t>
+    <rPh sb="7" eb="9">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイギョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1880,7 +1959,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1911,6 +1990,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2110,7 +2196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2195,9 +2281,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2217,6 +2300,12 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2263,6 +2352,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3349,114 +3447,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>338138</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>338138</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED9FDA1-D61B-4568-92A2-5CE5693B0DF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3762375" y="1747838"/>
-          <a:ext cx="342900" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDF2D03-F6E6-4D36-AF13-D7F29303A640}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3771900" y="1057275"/>
-          <a:ext cx="342900" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -4055,13 +4045,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4069,7 +4059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
@@ -4077,7 +4067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
@@ -4085,60 +4075,60 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>90</v>
       </c>
@@ -4150,62 +4140,266 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3E4B05-3A11-407A-A54C-D90A795E15A2}">
+  <dimension ref="A3:D25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="37"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="12"/>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="12"/>
+      <c r="B19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="12"/>
+      <c r="B20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="12"/>
+      <c r="B21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="12"/>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 D10" xr:uid="{04459708-160F-4E16-9C80-1044666FF742}">
+      <formula1>"I,O"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2031946F-4DA0-4384-9E93-2D07B3F8FEAE}">
+          <x14:formula1>
+            <xm:f>リスト!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABD3CBD-2973-4191-B931-CD033E8C08CF}">
   <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" s="42" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E2" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" s="16" t="s">
         <v>174</v>
       </c>
       <c r="C3" s="17"/>
-      <c r="E3" s="45"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4220,23 +4414,23 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="21" t="s">
         <v>156</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="18" t="s">
         <v>131</v>
       </c>
@@ -4259,7 +4453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4274,7 +4468,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E11" s="1" t="s">
         <v>48</v>
       </c>
@@ -4285,7 +4479,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="26" t="s">
         <v>12</v>
       </c>
@@ -4301,14 +4495,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="37"/>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
@@ -4319,23 +4513,23 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
         <v>175</v>
       </c>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" s="49" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E15" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="49"/>
+      <c r="F15" s="50"/>
       <c r="G15" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="24"/>
       <c r="B16" s="25" t="s">
         <v>5</v>
@@ -4351,7 +4545,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>131</v>
       </c>
@@ -4369,7 +4563,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
         <v>44</v>
@@ -4385,7 +4579,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="12"/>
       <c r="B19" s="1" t="s">
         <v>177</v>
@@ -4397,7 +4591,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
         <v>183</v>
@@ -4406,7 +4600,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>184</v>
@@ -4415,25 +4609,25 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="31" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="12"/>
       <c r="B25" s="1" t="s">
         <v>45</v>
@@ -4484,7 +4678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693F410-AA2E-42AD-B3D3-F5FA5F369350}">
   <dimension ref="A2:C18"/>
   <sheetViews>
@@ -4492,22 +4686,22 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="46"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4515,8 +4709,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="47"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4524,8 +4718,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="47"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="48"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4533,7 +4727,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -4544,14 +4738,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -4562,7 +4756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -4573,7 +4767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -4584,16 +4778,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -4604,7 +4798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>9</v>
@@ -4613,17 +4807,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
@@ -4658,7 +4852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA19B411-8640-4288-9614-092185587FA4}">
   <dimension ref="A2:C25"/>
   <sheetViews>
@@ -4666,22 +4860,22 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="46"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4689,8 +4883,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="47"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4698,8 +4892,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="47"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="48"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4707,7 +4901,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4718,14 +4912,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -4736,7 +4930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -4747,7 +4941,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -4758,7 +4952,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -4769,7 +4963,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -4780,7 +4974,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -4791,16 +4985,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -4811,7 +5005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>9</v>
@@ -4820,37 +5014,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C21" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C22" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C23" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C24" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C25" s="1" t="s">
         <v>84</v>
       </c>
@@ -4885,7 +5079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AED83B-1B94-444D-A6D1-9402150B1D9A}">
   <dimension ref="A2:C18"/>
   <sheetViews>
@@ -4893,22 +5087,22 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="46"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4916,8 +5110,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="47"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4925,8 +5119,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="47"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="48"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4934,8 +5128,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="50" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="51" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4945,8 +5139,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="50"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="51"/>
       <c r="B7" s="1" t="s">
         <v>120</v>
       </c>
@@ -4954,14 +5148,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -4972,7 +5166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -4983,16 +5177,16 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -5003,7 +5197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>9</v>
@@ -5012,17 +5206,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C16" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C18" s="1" t="s">
         <v>123</v>
       </c>
@@ -5058,7 +5252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A01D81-8AE5-47A9-AD6E-4721182DB5CD}">
   <dimension ref="A2:C19"/>
   <sheetViews>
@@ -5066,22 +5260,22 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="46"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5089,8 +5283,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="47"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5098,8 +5292,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="47"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="48"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5107,7 +5301,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>44</v>
@@ -5116,7 +5310,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>96</v>
@@ -5125,17 +5319,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -5146,7 +5340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -5157,7 +5351,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -5168,16 +5362,16 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -5188,26 +5382,26 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C18" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C19" s="1" t="s">
         <v>95</v>
       </c>
@@ -5242,7 +5436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D5CA68-FFC2-4B6E-AFCD-403F4A8C71BA}">
   <dimension ref="A2:C18"/>
   <sheetViews>
@@ -5250,22 +5444,22 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="46"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5273,8 +5467,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="47"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5282,8 +5476,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="47"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="48"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5291,7 +5485,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>102</v>
@@ -5300,17 +5494,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -5321,7 +5515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -5332,16 +5526,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="49" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="49"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -5352,7 +5546,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>39</v>
@@ -5361,7 +5555,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>55</v>
@@ -5370,17 +5564,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C16" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C18" s="1" t="s">
         <v>104</v>
       </c>
@@ -5415,7 +5609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32704E21-3C14-4928-8543-0DCEBF9E97A4}">
   <dimension ref="A2:C15"/>
   <sheetViews>
@@ -5423,22 +5617,22 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="46"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5446,8 +5640,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="47"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5455,8 +5649,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="47"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="48"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5464,7 +5658,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>110</v>
@@ -5473,17 +5667,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -5494,7 +5688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -5505,7 +5699,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -5516,16 +5710,16 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -5536,7 +5730,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -5574,81 +5768,170 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A98445-A0FD-4518-BCBF-DF8AD25C4EC8}">
-  <dimension ref="A1:A13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE2D248-941B-46BB-8326-457B107A13BD}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5887B382-1BD0-48FF-903D-56541F164A0E}">
+          <x14:formula1>
+            <xm:f>リスト!$A$2:$A$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A98445-A0FD-4518-BCBF-DF8AD25C4EC8}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.75" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.75" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="52" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="36"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="53" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="53" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="53" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="53" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="53" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="53" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="53" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="53" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="53" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5657,21 +5940,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EBF50D-D6AC-4FFC-809E-620783E2C652}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>188</v>
       </c>
@@ -5681,22 +5964,22 @@
       <c r="C1" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5713,7 +5996,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0FD7D959-E282-4C64-8283-E19B2F8F56DD}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F63E1D2-B6A0-436E-96B1-5E6681D44DB8}">
           <x14:formula1>
             <xm:f>リスト!$A$2:$A$20</xm:f>
           </x14:formula1>
@@ -5725,20 +6008,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B374448D-74CC-4547-B92F-2CB335DDBAB4}">
   <dimension ref="N7:O8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="7" spans="14:15" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="14:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="14:15" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="14:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N8" s="11" t="s">
         <v>64</v>
       </c>
@@ -5751,7 +6034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772763EA-4A97-41D7-BF1F-7706FCD5CE65}">
   <dimension ref="A2:D22"/>
   <sheetViews>
@@ -5759,21 +6042,21 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>142</v>
       </c>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5781,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5789,7 +6072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5797,7 +6080,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>156</v>
       </c>
@@ -5805,7 +6088,7 @@
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="18" t="s">
         <v>131</v>
       </c>
@@ -5819,7 +6102,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -5831,7 +6114,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -5843,7 +6126,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -5855,7 +6138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -5867,7 +6150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -5881,23 +6164,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="36"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="37"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>133</v>
       </c>
@@ -5906,14 +6189,14 @@
       </c>
       <c r="C17" s="13"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="24"/>
       <c r="B19" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="20" t="s">
         <v>131</v>
       </c>
@@ -5924,7 +6207,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>1</v>
       </c>
@@ -5932,10 +6215,10 @@
         <v>137</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>140</v>
       </c>
@@ -5972,27 +6255,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98017A99-C2C7-4D57-9359-9B50FA61EAC6}">
   <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" customWidth="1"/>
-    <col min="2" max="2" width="19.58203125" customWidth="1"/>
-    <col min="3" max="3" width="58.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="58.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2" s="14" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6000,7 +6283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6008,7 +6291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6016,7 +6299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>156</v>
       </c>
@@ -6024,7 +6307,7 @@
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="18" t="s">
         <v>131</v>
       </c>
@@ -6038,7 +6321,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -6050,7 +6333,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -6062,7 +6345,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -6076,23 +6359,23 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="41"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="42"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>145</v>
       </c>
@@ -6101,14 +6384,14 @@
       </c>
       <c r="C15" s="13"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="24"/>
       <c r="B17" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="20" t="s">
         <v>131</v>
       </c>
@@ -6119,7 +6402,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>147</v>
       </c>
@@ -6130,7 +6413,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>147</v>
       </c>
@@ -6168,7 +6451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5B8EE-549A-4C18-9F76-86FCB6C92C92}">
   <dimension ref="A2:D26"/>
   <sheetViews>
@@ -6176,21 +6459,21 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>152</v>
       </c>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6198,7 +6481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6206,7 +6489,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6214,7 +6497,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>156</v>
       </c>
@@ -6222,7 +6505,7 @@
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="18" t="s">
         <v>131</v>
       </c>
@@ -6236,7 +6519,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -6250,7 +6533,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -6264,7 +6547,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -6278,7 +6561,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -6292,7 +6575,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -6306,7 +6589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -6320,7 +6603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -6334,29 +6617,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="27"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="36"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="37"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>170</v>
       </c>
@@ -6365,14 +6648,14 @@
       </c>
       <c r="C19" s="13"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="24"/>
       <c r="B21" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
         <v>131</v>
       </c>
@@ -6383,7 +6666,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>1</v>
       </c>
@@ -6394,7 +6677,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>2</v>
       </c>
@@ -6405,7 +6688,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>2</v>
       </c>
@@ -6416,7 +6699,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
         <v>147</v>
       </c>
@@ -6456,27 +6739,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D141E9-0B32-4178-ABBB-ED1197BD2503}">
   <dimension ref="A2:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>168</v>
       </c>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6484,7 +6769,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6492,7 +6777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6500,7 +6785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
         <v>156</v>
       </c>
@@ -6508,7 +6793,7 @@
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="18" t="s">
         <v>131</v>
       </c>
@@ -6522,7 +6807,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -6536,7 +6821,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -6550,7 +6835,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -6564,7 +6849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -6578,23 +6863,23 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="36"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="37"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>145</v>
       </c>
@@ -6603,14 +6888,14 @@
       </c>
       <c r="C16" s="13"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="24"/>
       <c r="B18" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>131</v>
       </c>
@@ -6621,7 +6906,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>145</v>
       </c>
@@ -6632,7 +6917,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>173</v>
       </c>
@@ -6670,208 +6955,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3E4B05-3A11-407A-A54C-D90A795E15A2}">
-  <dimension ref="A3:D25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="36"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="19"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="12"/>
-      <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="12"/>
-      <c r="B19" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="12"/>
-      <c r="B20" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="12"/>
-      <c r="B21" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="12"/>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B13:C13"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 D10" xr:uid="{04459708-160F-4E16-9C80-1044666FF742}">
-      <formula1>"I,O"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2031946F-4DA0-4384-9E93-2D07B3F8FEAE}">
-          <x14:formula1>
-            <xm:f>リスト!$A$2:$A$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>C10</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>